--- a/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
+++ b/output/ssp/templates/calibrated/croatia/model_input_variables_croatia_ip_calibrated.xlsx
@@ -15049,112 +15049,112 @@
         <v>1</v>
       </c>
       <c r="J115">
-        <v>0.1666666666666667</v>
+        <v>0.1669704468154182</v>
       </c>
       <c r="K115">
-        <v>0.1666666666666667</v>
+        <v>0.1668544439775266</v>
       </c>
       <c r="L115">
-        <v>0.1666666666666667</v>
+        <v>0.1664571298850018</v>
       </c>
       <c r="M115">
-        <v>0.1666666666666667</v>
+        <v>0.1665287512258631</v>
       </c>
       <c r="N115">
-        <v>0.1666666666666667</v>
+        <v>0.1669116276763294</v>
       </c>
       <c r="O115">
-        <v>0.1666666666666667</v>
+        <v>0.1675186794583701</v>
       </c>
       <c r="P115">
-        <v>0.1666666666666667</v>
+        <v>0.1667673705243116</v>
       </c>
       <c r="Q115">
-        <v>0.1666666666666667</v>
+        <v>0.1667099301960253</v>
       </c>
       <c r="R115">
-        <v>0.1666666666666667</v>
+        <v>0.1668635810765985</v>
       </c>
       <c r="S115">
-        <v>0.1666666666666667</v>
+        <v>0.1665474436193192</v>
       </c>
       <c r="T115">
-        <v>0.1666666666666667</v>
+        <v>0.1668953466434783</v>
       </c>
       <c r="U115">
-        <v>0.1666666666666667</v>
+        <v>0.1669928832730493</v>
       </c>
       <c r="V115">
-        <v>0.1666666666666667</v>
+        <v>0.1663247634644404</v>
       </c>
       <c r="W115">
-        <v>0.1666666666666667</v>
+        <v>0.16627925864324</v>
       </c>
       <c r="X115">
-        <v>0.1666666666666667</v>
+        <v>0.1663626378206645</v>
       </c>
       <c r="Y115">
-        <v>0.1666666666666667</v>
+        <v>0.1666481518276948</v>
       </c>
       <c r="Z115">
-        <v>0.1666666666666667</v>
+        <v>0.167434133879608</v>
       </c>
       <c r="AA115">
-        <v>0.1666666666666667</v>
+        <v>0.1671376124101364</v>
       </c>
       <c r="AB115">
-        <v>0.1666666666666667</v>
+        <v>0.1662395403714911</v>
       </c>
       <c r="AC115">
-        <v>0.1666666666666667</v>
+        <v>0.1661882656814292</v>
       </c>
       <c r="AD115">
-        <v>0.1666666666666667</v>
+        <v>0.1665883055446718</v>
       </c>
       <c r="AE115">
-        <v>0.1666666666666667</v>
+        <v>0.1665271391583742</v>
       </c>
       <c r="AF115">
-        <v>0.1666666666666667</v>
+        <v>0.1671606708688717</v>
       </c>
       <c r="AG115">
-        <v>0.1666666666666667</v>
+        <v>0.166414697682558</v>
       </c>
       <c r="AH115">
-        <v>0.1666666666666667</v>
+        <v>0.1664681352024826</v>
       </c>
       <c r="AI115">
-        <v>0.1666666666666667</v>
+        <v>0.1675146313930908</v>
       </c>
       <c r="AJ115">
-        <v>0.1666666666666667</v>
+        <v>0.1658400651378173</v>
       </c>
       <c r="AK115">
-        <v>0.1666666666666667</v>
+        <v>0.1668125991549537</v>
       </c>
       <c r="AL115">
-        <v>0.1666666666666667</v>
+        <v>0.1673734330766763</v>
       </c>
       <c r="AM115">
-        <v>0.1666666666666667</v>
+        <v>0.1668562162096593</v>
       </c>
       <c r="AN115">
-        <v>0.1666666666666667</v>
+        <v>0.166688324883921</v>
       </c>
       <c r="AO115">
-        <v>0.1666666666666667</v>
+        <v>0.1658942149889756</v>
       </c>
       <c r="AP115">
-        <v>0.1666666666666667</v>
+        <v>0.1667482428870536</v>
       </c>
       <c r="AQ115">
-        <v>0.1666666666666667</v>
+        <v>0.1665293493522229</v>
       </c>
       <c r="AR115">
-        <v>0.1666666666666667</v>
+        <v>0.1661360355845566</v>
       </c>
       <c r="AS115">
-        <v>0.1666666666666667</v>
+        <v>0.166530752192483</v>
       </c>
     </row>
     <row r="116" spans="1:45">
@@ -15174,112 +15174,112 @@
         <v>1</v>
       </c>
       <c r="J116">
-        <v>0.1666666666666667</v>
+        <v>0.1670325999656356</v>
       </c>
       <c r="K116">
-        <v>0.1666666666666667</v>
+        <v>0.1658174549958736</v>
       </c>
       <c r="L116">
-        <v>0.1666666666666667</v>
+        <v>0.16627119547374</v>
       </c>
       <c r="M116">
-        <v>0.1666666666666667</v>
+        <v>0.1663453173119837</v>
       </c>
       <c r="N116">
-        <v>0.1666666666666667</v>
+        <v>0.1665490525663237</v>
       </c>
       <c r="O116">
-        <v>0.1666666666666667</v>
+        <v>0.1665574801455724</v>
       </c>
       <c r="P116">
-        <v>0.1666666666666667</v>
+        <v>0.1661045957705956</v>
       </c>
       <c r="Q116">
-        <v>0.1666666666666667</v>
+        <v>0.1670749062216403</v>
       </c>
       <c r="R116">
-        <v>0.1666666666666667</v>
+        <v>0.1670600838309606</v>
       </c>
       <c r="S116">
-        <v>0.1666666666666667</v>
+        <v>0.1663153063479813</v>
       </c>
       <c r="T116">
-        <v>0.1666666666666667</v>
+        <v>0.1667042345630381</v>
       </c>
       <c r="U116">
-        <v>0.1666666666666667</v>
+        <v>0.1660236847725201</v>
       </c>
       <c r="V116">
-        <v>0.1666666666666667</v>
+        <v>0.1663365598738334</v>
       </c>
       <c r="W116">
-        <v>0.1666666666666667</v>
+        <v>0.1666875370513862</v>
       </c>
       <c r="X116">
-        <v>0.1666666666666667</v>
+        <v>0.1663541520278838</v>
       </c>
       <c r="Y116">
-        <v>0.1666666666666667</v>
+        <v>0.1667557025137344</v>
       </c>
       <c r="Z116">
-        <v>0.1666666666666667</v>
+        <v>0.1659658864826062</v>
       </c>
       <c r="AA116">
-        <v>0.1666666666666667</v>
+        <v>0.1665942725379972</v>
       </c>
       <c r="AB116">
-        <v>0.1666666666666667</v>
+        <v>0.1672522116312531</v>
       </c>
       <c r="AC116">
-        <v>0.1666666666666667</v>
+        <v>0.1668806581345275</v>
       </c>
       <c r="AD116">
-        <v>0.1666666666666667</v>
+        <v>0.1664775490689893</v>
       </c>
       <c r="AE116">
-        <v>0.1666666666666667</v>
+        <v>0.1665886544111523</v>
       </c>
       <c r="AF116">
-        <v>0.1666666666666667</v>
+        <v>0.1666586884531701</v>
       </c>
       <c r="AG116">
-        <v>0.1666666666666667</v>
+        <v>0.166595739545568</v>
       </c>
       <c r="AH116">
-        <v>0.1666666666666667</v>
+        <v>0.1662954805647051</v>
       </c>
       <c r="AI116">
-        <v>0.1666666666666667</v>
+        <v>0.1661732675194821</v>
       </c>
       <c r="AJ116">
-        <v>0.1666666666666667</v>
+        <v>0.167387305630199</v>
       </c>
       <c r="AK116">
-        <v>0.1666666666666667</v>
+        <v>0.1666525638466862</v>
       </c>
       <c r="AL116">
-        <v>0.1666666666666667</v>
+        <v>0.1665502261593077</v>
       </c>
       <c r="AM116">
-        <v>0.1666666666666667</v>
+        <v>0.1668442944593305</v>
       </c>
       <c r="AN116">
-        <v>0.1666666666666667</v>
+        <v>0.1670229529118799</v>
       </c>
       <c r="AO116">
-        <v>0.1666666666666667</v>
+        <v>0.1666801160375577</v>
       </c>
       <c r="AP116">
-        <v>0.1666666666666667</v>
+        <v>0.1671646540994088</v>
       </c>
       <c r="AQ116">
-        <v>0.1666666666666667</v>
+        <v>0.1663098321958253</v>
       </c>
       <c r="AR116">
-        <v>0.1666666666666667</v>
+        <v>0.1672707002461738</v>
       </c>
       <c r="AS116">
-        <v>0.1666666666666667</v>
+        <v>0.1660206875252341</v>
       </c>
     </row>
     <row r="117" spans="1:45">
@@ -15296,112 +15296,112 @@
         <v>1</v>
       </c>
       <c r="J117">
-        <v>0.1666666666666667</v>
+        <v>0.1665203841157459</v>
       </c>
       <c r="K117">
-        <v>0.1666666666666667</v>
+        <v>0.1665101957488808</v>
       </c>
       <c r="L117">
-        <v>0.1666666666666667</v>
+        <v>0.1671007771182995</v>
       </c>
       <c r="M117">
-        <v>0.1666666666666667</v>
+        <v>0.1665300029504827</v>
       </c>
       <c r="N117">
-        <v>0.1666666666666667</v>
+        <v>0.1663311991615543</v>
       </c>
       <c r="O117">
-        <v>0.1666666666666667</v>
+        <v>0.1662461879402615</v>
       </c>
       <c r="P117">
-        <v>0.1666666666666667</v>
+        <v>0.1668731704347756</v>
       </c>
       <c r="Q117">
-        <v>0.1666666666666667</v>
+        <v>0.1658607035044145</v>
       </c>
       <c r="R117">
-        <v>0.1666666666666667</v>
+        <v>0.1669691647742119</v>
       </c>
       <c r="S117">
-        <v>0.1666666666666667</v>
+        <v>0.1676739990421307</v>
       </c>
       <c r="T117">
-        <v>0.1666666666666667</v>
+        <v>0.166122546089444</v>
       </c>
       <c r="U117">
-        <v>0.1666666666666667</v>
+        <v>0.1672145977861569</v>
       </c>
       <c r="V117">
-        <v>0.1666666666666667</v>
+        <v>0.1662878652947018</v>
       </c>
       <c r="W117">
-        <v>0.1666666666666667</v>
+        <v>0.1663718233431025</v>
       </c>
       <c r="X117">
-        <v>0.1666666666666667</v>
+        <v>0.1669144405815026</v>
       </c>
       <c r="Y117">
-        <v>0.1666666666666667</v>
+        <v>0.1672152526914851</v>
       </c>
       <c r="Z117">
-        <v>0.1666666666666667</v>
+        <v>0.1659926756413831</v>
       </c>
       <c r="AA117">
-        <v>0.1666666666666667</v>
+        <v>0.1661858859783912</v>
       </c>
       <c r="AB117">
-        <v>0.1666666666666667</v>
+        <v>0.1667263029599708</v>
       </c>
       <c r="AC117">
-        <v>0.1666666666666667</v>
+        <v>0.1665419295258996</v>
       </c>
       <c r="AD117">
-        <v>0.1666666666666667</v>
+        <v>0.1662158080509492</v>
       </c>
       <c r="AE117">
-        <v>0.1666666666666667</v>
+        <v>0.1669475021333724</v>
       </c>
       <c r="AF117">
-        <v>0.1666666666666667</v>
+        <v>0.166196563264142</v>
       </c>
       <c r="AG117">
-        <v>0.1666666666666667</v>
+        <v>0.1664376531979823</v>
       </c>
       <c r="AH117">
-        <v>0.1666666666666667</v>
+        <v>0.1669800897232094</v>
       </c>
       <c r="AI117">
-        <v>0.1666666666666667</v>
+        <v>0.1667576691650365</v>
       </c>
       <c r="AJ117">
-        <v>0.1666666666666667</v>
+        <v>0.1668920518787734</v>
       </c>
       <c r="AK117">
-        <v>0.1666666666666667</v>
+        <v>0.1673097341019078</v>
       </c>
       <c r="AL117">
-        <v>0.1666666666666667</v>
+        <v>0.1670056373075798</v>
       </c>
       <c r="AM117">
-        <v>0.1666666666666667</v>
+        <v>0.1665543420022939</v>
       </c>
       <c r="AN117">
-        <v>0.1666666666666667</v>
+        <v>0.1668719926424919</v>
       </c>
       <c r="AO117">
-        <v>0.1666666666666667</v>
+        <v>0.1665506464209853</v>
       </c>
       <c r="AP117">
-        <v>0.1666666666666667</v>
+        <v>0.166868917246636</v>
       </c>
       <c r="AQ117">
-        <v>0.1666666666666667</v>
+        <v>0.1664050183664409</v>
       </c>
       <c r="AR117">
-        <v>0.1666666666666667</v>
+        <v>0.1672805920347569</v>
       </c>
       <c r="AS117">
-        <v>0.1666666666666667</v>
+        <v>0.1670804058377872</v>
       </c>
     </row>
     <row r="118" spans="1:45">
@@ -15418,112 +15418,112 @@
         <v>1</v>
       </c>
       <c r="J118">
-        <v>0.1666666666666667</v>
+        <v>0.1660868498029469</v>
       </c>
       <c r="K118">
-        <v>0.1666666666666667</v>
+        <v>0.1670256284033731</v>
       </c>
       <c r="L118">
-        <v>0.1666666666666667</v>
+        <v>0.1669988483203717</v>
       </c>
       <c r="M118">
-        <v>0.1666666666666667</v>
+        <v>0.1673035024162832</v>
       </c>
       <c r="N118">
-        <v>0.1666666666666667</v>
+        <v>0.1667078796370055</v>
       </c>
       <c r="O118">
-        <v>0.1666666666666667</v>
+        <v>0.1667329066997449</v>
       </c>
       <c r="P118">
-        <v>0.1666666666666667</v>
+        <v>0.1668672093135058</v>
       </c>
       <c r="Q118">
-        <v>0.1666666666666667</v>
+        <v>0.1671121656130445</v>
       </c>
       <c r="R118">
-        <v>0.1666666666666667</v>
+        <v>0.166439364870661</v>
       </c>
       <c r="S118">
-        <v>0.1666666666666667</v>
+        <v>0.1665311907066977</v>
       </c>
       <c r="T118">
-        <v>0.1666666666666667</v>
+        <v>0.1667666960237864</v>
       </c>
       <c r="U118">
-        <v>0.1666666666666667</v>
+        <v>0.1665625694772846</v>
       </c>
       <c r="V118">
-        <v>0.1666666666666667</v>
+        <v>0.1676717759626159</v>
       </c>
       <c r="W118">
-        <v>0.1666666666666667</v>
+        <v>0.1662535486091587</v>
       </c>
       <c r="X118">
-        <v>0.1666666666666667</v>
+        <v>0.1672036721699834</v>
       </c>
       <c r="Y118">
-        <v>0.1666666666666667</v>
+        <v>0.1664773036108964</v>
       </c>
       <c r="Z118">
-        <v>0.1666666666666667</v>
+        <v>0.1662745254745918</v>
       </c>
       <c r="AA118">
-        <v>0.1666666666666667</v>
+        <v>0.1662945095842198</v>
       </c>
       <c r="AB118">
-        <v>0.1666666666666667</v>
+        <v>0.1671404982835342</v>
       </c>
       <c r="AC118">
-        <v>0.1666666666666667</v>
+        <v>0.1673221476268511</v>
       </c>
       <c r="AD118">
-        <v>0.1666666666666667</v>
+        <v>0.1675312921893973</v>
       </c>
       <c r="AE118">
-        <v>0.1666666666666667</v>
+        <v>0.1664779771425576</v>
       </c>
       <c r="AF118">
-        <v>0.1666666666666667</v>
+        <v>0.166549737454175</v>
       </c>
       <c r="AG118">
-        <v>0.1666666666666667</v>
+        <v>0.1665093351738502</v>
       </c>
       <c r="AH118">
-        <v>0.1666666666666667</v>
+        <v>0.1668861147549322</v>
       </c>
       <c r="AI118">
-        <v>0.1666666666666667</v>
+        <v>0.1661442576454934</v>
       </c>
       <c r="AJ118">
-        <v>0.1666666666666667</v>
+        <v>0.1663296102629591</v>
       </c>
       <c r="AK118">
-        <v>0.1666666666666667</v>
+        <v>0.1666298197496115</v>
       </c>
       <c r="AL118">
-        <v>0.1666666666666667</v>
+        <v>0.166461964966555</v>
       </c>
       <c r="AM118">
-        <v>0.1666666666666667</v>
+        <v>0.1657596162878959</v>
       </c>
       <c r="AN118">
-        <v>0.1666666666666667</v>
+        <v>0.1664990418804215</v>
       </c>
       <c r="AO118">
-        <v>0.1666666666666667</v>
+        <v>0.1672596774663499</v>
       </c>
       <c r="AP118">
-        <v>0.1666666666666667</v>
+        <v>0.1664853803119092</v>
       </c>
       <c r="AQ118">
-        <v>0.1666666666666667</v>
+        <v>0.1670337321358036</v>
       </c>
       <c r="AR118">
-        <v>0.1666666666666667</v>
+        <v>0.1659407466006606</v>
       </c>
       <c r="AS118">
-        <v>0.1666666666666667</v>
+        <v>0.1659881087844111</v>
       </c>
     </row>
     <row r="119" spans="1:45">
@@ -15543,112 +15543,112 @@
         <v>1</v>
       </c>
       <c r="J119">
-        <v>0.1666666666666667</v>
+        <v>0.1665434902290179</v>
       </c>
       <c r="K119">
-        <v>0.1666666666666667</v>
+        <v>0.1666394407344552</v>
       </c>
       <c r="L119">
-        <v>0.1666666666666667</v>
+        <v>0.1668398926280265</v>
       </c>
       <c r="M119">
-        <v>0.1666666666666667</v>
+        <v>0.1669961201002328</v>
       </c>
       <c r="N119">
-        <v>0.1666666666666667</v>
+        <v>0.1669651130911293</v>
       </c>
       <c r="O119">
-        <v>0.1666666666666667</v>
+        <v>0.1668240093241154</v>
       </c>
       <c r="P119">
-        <v>0.1666666666666667</v>
+        <v>0.1664771618012539</v>
       </c>
       <c r="Q119">
-        <v>0.1666666666666667</v>
+        <v>0.1660811087033906</v>
       </c>
       <c r="R119">
-        <v>0.1666666666666667</v>
+        <v>0.165905369836689</v>
       </c>
       <c r="S119">
-        <v>0.1666666666666667</v>
+        <v>0.1663316837311798</v>
       </c>
       <c r="T119">
-        <v>0.1666666666666667</v>
+        <v>0.166960986675506</v>
       </c>
       <c r="U119">
-        <v>0.1666666666666667</v>
+        <v>0.1672927877094396</v>
       </c>
       <c r="V119">
-        <v>0.1666666666666667</v>
+        <v>0.1666589188045927</v>
       </c>
       <c r="W119">
-        <v>0.1666666666666667</v>
+        <v>0.1675616232016939</v>
       </c>
       <c r="X119">
-        <v>0.1666666666666667</v>
+        <v>0.1660469602612313</v>
       </c>
       <c r="Y119">
-        <v>0.1666666666666667</v>
+        <v>0.1663585183595326</v>
       </c>
       <c r="Z119">
-        <v>0.1666666666666667</v>
+        <v>0.1670620425581621</v>
       </c>
       <c r="AA119">
-        <v>0.1666666666666667</v>
+        <v>0.1669498710324337</v>
       </c>
       <c r="AB119">
-        <v>0.1666666666666667</v>
+        <v>0.1662651219464116</v>
       </c>
       <c r="AC119">
-        <v>0.1666666666666667</v>
+        <v>0.1665821441030327</v>
       </c>
       <c r="AD119">
-        <v>0.1666666666666667</v>
+        <v>0.1664712276776268</v>
       </c>
       <c r="AE119">
-        <v>0.1666666666666667</v>
+        <v>0.1665341573081411</v>
       </c>
       <c r="AF119">
-        <v>0.1666666666666667</v>
+        <v>0.1670117908918719</v>
       </c>
       <c r="AG119">
-        <v>0.1666666666666667</v>
+        <v>0.1675756705570422</v>
       </c>
       <c r="AH119">
-        <v>0.1666666666666667</v>
+        <v>0.1665492089053756</v>
       </c>
       <c r="AI119">
-        <v>0.1666666666666667</v>
+        <v>0.1662101079677652</v>
       </c>
       <c r="AJ119">
-        <v>0.1666666666666667</v>
+        <v>0.1673690686919694</v>
       </c>
       <c r="AK119">
-        <v>0.1666666666666667</v>
+        <v>0.166696237415456</v>
       </c>
       <c r="AL119">
-        <v>0.1666666666666667</v>
+        <v>0.1665398702222137</v>
       </c>
       <c r="AM119">
-        <v>0.1666666666666667</v>
+        <v>0.1666919519123032</v>
       </c>
       <c r="AN119">
-        <v>0.1666666666666667</v>
+        <v>0.1666926683150301</v>
       </c>
       <c r="AO119">
-        <v>0.1666666666666667</v>
+        <v>0.1673223460799609</v>
       </c>
       <c r="AP119">
-        <v>0.1666666666666667</v>
+        <v>0.1664758269590645</v>
       </c>
       <c r="AQ119">
-        <v>0.1666666666666667</v>
+        <v>0.1665216740366527</v>
       </c>
       <c r="AR119">
-        <v>0.1666666666666667</v>
+        <v>0.1662194904112687</v>
       </c>
       <c r="AS119">
-        <v>0.1666666666666667</v>
+        <v>0.1671441120097011</v>
       </c>
     </row>
     <row r="120" spans="1:45">
@@ -15668,112 +15668,112 @@
         <v>1</v>
       </c>
       <c r="J120">
-        <v>0.1666666666666667</v>
+        <v>0.1668462290712356</v>
       </c>
       <c r="K120">
-        <v>0.1666666666666667</v>
+        <v>0.1671528361398906</v>
       </c>
       <c r="L120">
-        <v>0.1666666666666667</v>
+        <v>0.1663321565745605</v>
       </c>
       <c r="M120">
-        <v>0.1666666666666667</v>
+        <v>0.1662963059951545</v>
       </c>
       <c r="N120">
-        <v>0.1666666666666667</v>
+        <v>0.1665351278676578</v>
       </c>
       <c r="O120">
-        <v>0.1666666666666667</v>
+        <v>0.1661207364319356</v>
       </c>
       <c r="P120">
-        <v>0.1666666666666667</v>
+        <v>0.1669104921555575</v>
       </c>
       <c r="Q120">
-        <v>0.1666666666666667</v>
+        <v>0.1671611857614847</v>
       </c>
       <c r="R120">
-        <v>0.1666666666666667</v>
+        <v>0.1667624356108791</v>
       </c>
       <c r="S120">
-        <v>0.1666666666666667</v>
+        <v>0.1666003765526913</v>
       </c>
       <c r="T120">
-        <v>0.1666666666666667</v>
+        <v>0.1665501900047473</v>
       </c>
       <c r="U120">
-        <v>0.1666666666666667</v>
+        <v>0.1659134769815497</v>
       </c>
       <c r="V120">
-        <v>0.1666666666666667</v>
+        <v>0.1667201165998157</v>
       </c>
       <c r="W120">
-        <v>0.1666666666666667</v>
+        <v>0.1668462091514185</v>
       </c>
       <c r="X120">
-        <v>0.1666666666666667</v>
+        <v>0.1671181371387346</v>
       </c>
       <c r="Y120">
-        <v>0.1666666666666667</v>
+        <v>0.1665450709966566</v>
       </c>
       <c r="Z120">
-        <v>0.1666666666666667</v>
+        <v>0.1672707359636489</v>
       </c>
       <c r="AA120">
-        <v>0.1666666666666667</v>
+        <v>0.1668378484568218</v>
       </c>
       <c r="AB120">
-        <v>0.1666666666666667</v>
+        <v>0.1663763248073392</v>
       </c>
       <c r="AC120">
-        <v>0.1666666666666667</v>
+        <v>0.16648485492826</v>
       </c>
       <c r="AD120">
-        <v>0.1666666666666667</v>
+        <v>0.1667158174683653</v>
       </c>
       <c r="AE120">
-        <v>0.1666666666666667</v>
+        <v>0.1669245698464024</v>
       </c>
       <c r="AF120">
-        <v>0.1666666666666667</v>
+        <v>0.1664225490677693</v>
       </c>
       <c r="AG120">
-        <v>0.1666666666666667</v>
+        <v>0.1664669038429994</v>
       </c>
       <c r="AH120">
-        <v>0.1666666666666667</v>
+        <v>0.1668209708492952</v>
       </c>
       <c r="AI120">
-        <v>0.1666666666666667</v>
+        <v>0.1672000663091319</v>
       </c>
       <c r="AJ120">
-        <v>0.1666666666666667</v>
+        <v>0.1661818983982819</v>
       </c>
       <c r="AK120">
-        <v>0.1666666666666667</v>
+        <v>0.1658990457313849</v>
       </c>
       <c r="AL120">
-        <v>0.1666666666666667</v>
+        <v>0.1660688682676675</v>
       </c>
       <c r="AM120">
-        <v>0.1666666666666667</v>
+        <v>0.1672935791285173</v>
       </c>
       <c r="AN120">
-        <v>0.1666666666666667</v>
+        <v>0.1662250193662557</v>
       </c>
       <c r="AO120">
-        <v>0.1666666666666667</v>
+        <v>0.1662929990061707</v>
       </c>
       <c r="AP120">
-        <v>0.1666666666666667</v>
+        <v>0.1662569784959278</v>
       </c>
       <c r="AQ120">
-        <v>0.1666666666666667</v>
+        <v>0.1672003939130545</v>
       </c>
       <c r="AR120">
-        <v>0.1666666666666667</v>
+        <v>0.1671524351225835</v>
       </c>
       <c r="AS120">
-        <v>0.1666666666666667</v>
+        <v>0.1672359336503835</v>
       </c>
     </row>
     <row r="121" spans="1:45">
